--- a/biology/Microbiologie/Woodruffiidae/Woodruffiidae.xlsx
+++ b/biology/Microbiologie/Woodruffiidae/Woodruffiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Woodruffiidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Cyrtolophosidida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Woodruffia, nommé en l'honneur du protistologiste L.L. Woodruff[1] qui décrivit, notamment, plusieurs espèces du genre Paramecium[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Woodruffia, nommé en l'honneur du protistologiste L.L. Woodruff qui décrivit, notamment, plusieurs espèces du genre Paramecium.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Foissner (d) fait, de cette famille la description suivante : 
-« Taille petite à relativement grande avec une ouverture orale plus ou moins subapicale, sur le côté ventral (droit) de la cellule et inclinée à gauche de l'axe principal du corps. Organelle paroral constitué d'une rangée ininterrompue de dicinétides[note 1] ; Un à nombreux organelles adoraux s'étendant au-delà de la marge distale de l'ouverture buccale, forment une suture préorale dans la ciliature somatique et donnent à l'appareil oral une forme en « σ ». D'habitude pas de pseudo-membrane postorale le long de la marge buccale gauche. Argyrome[note 2] (de type) platyophryidien ou colpodien[note 3]. Division libre et/ou sous kyste. Organelle paroral parental probablement réorganisé pendant la stomatogenèse (formation de la cavité buccale)[3]. »
+« Taille petite à relativement grande avec une ouverture orale plus ou moins subapicale, sur le côté ventral (droit) de la cellule et inclinée à gauche de l'axe principal du corps. Organelle paroral constitué d'une rangée ininterrompue de dicinétides[note 1] ; Un à nombreux organelles adoraux s'étendant au-delà de la marge distale de l'ouverture buccale, forment une suture préorale dans la ciliature somatique et donnent à l'appareil oral une forme en « σ ». D'habitude pas de pseudo-membrane postorale le long de la marge buccale gauche. Argyrome[note 2] (de type) platyophryidien ou colpodien[note 3]. Division libre et/ou sous kyste. Organelle paroral parental probablement réorganisé pendant la stomatogenèse (formation de la cavité buccale). »
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été recensée de façon éparse sur le globe[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été recensée de façon éparse sur le globe.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 novembre 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 novembre 2022) :
 Etoschophrya
 Kuklikophrya Njiné, 1979
 Rostrophrya Njiné, 1979
 Rostrophryides Foissner, 1987
-Woodruffia Kahl, 1931[2] - genre type
+Woodruffia Kahl, 1931 - genre type
 Woodruffides Foissner, 1987</t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Woodruffiidae von Gelei, 1954[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Woodruffiidae von Gelei, 1954.
 </t>
         </is>
       </c>
